--- a/프로젝트C조 요구사항확인명세서 240409 v0.6.xlsx
+++ b/프로젝트C조 요구사항확인명세서 240409 v0.6.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITPS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ahnsanghyun\hairplatform_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="관리자" sheetId="1" r:id="rId1"/>
@@ -24456,8 +24456,8 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="109">
@@ -24701,6 +24701,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -24779,13 +24782,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25276,16 +25276,16 @@
   <sheetData>
     <row r="1" spans="2:7" ht="32.25" customHeight="1"/>
     <row r="2" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="85" t="s">
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="2:7" ht="33.75" customHeight="1">
       <c r="B3" s="6" t="s">
@@ -25322,7 +25322,7 @@
       <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="83" t="s">
         <v>67</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -25340,7 +25340,7 @@
       <c r="C6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="83"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="9" t="s">
         <v>65</v>
       </c>
@@ -25356,7 +25356,7 @@
       <c r="C7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="83"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="9" t="s">
         <v>66</v>
       </c>
@@ -25372,7 +25372,7 @@
       <c r="C8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="84"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="21" t="s">
         <v>68</v>
       </c>
@@ -25388,7 +25388,7 @@
       <c r="C9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="83" t="s">
         <v>69</v>
       </c>
       <c r="E9" s="21" t="s">
@@ -25406,7 +25406,7 @@
       <c r="C10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="83"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="21" t="s">
         <v>71</v>
       </c>
@@ -25422,7 +25422,7 @@
       <c r="C11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="83"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="21" t="s">
         <v>154</v>
       </c>
@@ -25438,7 +25438,7 @@
       <c r="C12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="84"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="22" t="s">
         <v>155</v>
       </c>
@@ -25454,7 +25454,7 @@
       <c r="C13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E13" s="21" t="s">
@@ -25472,7 +25472,7 @@
       <c r="C14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="80"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="21" t="s">
         <v>74</v>
       </c>
@@ -25488,7 +25488,7 @@
       <c r="C15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="80"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="21" t="s">
         <v>75</v>
       </c>
@@ -25504,7 +25504,7 @@
       <c r="C16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="21" t="s">
         <v>76</v>
       </c>
@@ -25538,8 +25538,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -25554,15 +25554,15 @@
   <sheetData>
     <row r="2" spans="2:7" ht="48" customHeight="1">
       <c r="B2" s="4"/>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="95" t="s">
+      <c r="D2" s="98"/>
+      <c r="E2" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
     </row>
     <row r="3" spans="2:7" ht="48" customHeight="1">
       <c r="B3" s="27" t="s">
@@ -25617,7 +25617,7 @@
       <c r="C6" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="97" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="16" t="s">
@@ -25635,7 +25635,7 @@
       <c r="C7" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="96"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="16" t="s">
         <v>19</v>
       </c>
@@ -25669,13 +25669,13 @@
       <c r="C9" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="97" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G9" s="17"/>
@@ -25687,7 +25687,7 @@
       <c r="C10" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="96"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="16" t="s">
         <v>14</v>
       </c>
@@ -25703,7 +25703,7 @@
       <c r="C11" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="98" t="s">
+      <c r="D11" s="99" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="17" t="s">
@@ -25721,7 +25721,7 @@
       <c r="C12" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="99"/>
+      <c r="D12" s="100"/>
       <c r="E12" s="17" t="s">
         <v>22</v>
       </c>
@@ -25737,7 +25737,7 @@
       <c r="C13" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="94" t="s">
+      <c r="D13" s="95" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="24" t="s">
@@ -25755,7 +25755,7 @@
       <c r="C14" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="94"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="56" t="s">
         <v>2</v>
       </c>
@@ -25771,7 +25771,7 @@
       <c r="C15" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="94"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="79" t="s">
         <v>198</v>
       </c>
@@ -25787,7 +25787,7 @@
       <c r="C16" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="94"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="79" t="s">
         <v>199</v>
       </c>
@@ -25803,7 +25803,7 @@
       <c r="C17" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="94"/>
+      <c r="D17" s="95"/>
       <c r="E17" s="56" t="s">
         <v>140</v>
       </c>
@@ -25819,7 +25819,7 @@
       <c r="C18" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="94" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="24" t="s">
@@ -25837,7 +25837,7 @@
       <c r="C19" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="94"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="24" t="s">
         <v>5</v>
       </c>
@@ -25853,7 +25853,7 @@
       <c r="C20" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="94"/>
+      <c r="D20" s="95"/>
       <c r="E20" s="63" t="s">
         <v>3</v>
       </c>
@@ -25869,7 +25869,7 @@
       <c r="C21" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="91" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="69" t="s">
@@ -25887,7 +25887,7 @@
       <c r="C22" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="91"/>
+      <c r="D22" s="92"/>
       <c r="E22" s="69" t="s">
         <v>175</v>
       </c>
@@ -25903,7 +25903,7 @@
       <c r="C23" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="92"/>
+      <c r="D23" s="93"/>
       <c r="E23" s="69" t="s">
         <v>177</v>
       </c>
@@ -25970,7 +25970,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -25982,15 +25982,15 @@
   <sheetData>
     <row r="2" spans="2:7" ht="44.25" customHeight="1">
       <c r="B2" s="4"/>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="95" t="s">
+      <c r="D2" s="98"/>
+      <c r="E2" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
     </row>
     <row r="3" spans="2:7" ht="44.25" customHeight="1">
       <c r="B3" s="27" t="s">
@@ -26033,7 +26033,7 @@
       <c r="E5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="80" t="s">
         <v>201</v>
       </c>
       <c r="G5" s="38"/>
@@ -26045,7 +26045,7 @@
       <c r="C6" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="103" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="57" t="s">
@@ -26063,11 +26063,11 @@
       <c r="C7" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="102"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="107" t="s">
+      <c r="F7" s="80" t="s">
         <v>202</v>
       </c>
       <c r="G7" s="38"/>
@@ -26115,7 +26115,7 @@
       <c r="C10" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="103" t="s">
+      <c r="D10" s="104" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="58" t="s">
@@ -26133,7 +26133,7 @@
       <c r="C11" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="58" t="s">
         <v>14</v>
       </c>
@@ -26149,7 +26149,7 @@
       <c r="C12" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="102" t="s">
         <v>187</v>
       </c>
       <c r="E12" s="57" t="s">
@@ -26167,7 +26167,7 @@
       <c r="C13" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="100"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="57" t="s">
         <v>5</v>
       </c>
@@ -26183,7 +26183,7 @@
       <c r="C14" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="100"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="57" t="s">
         <v>3</v>
       </c>
@@ -26199,7 +26199,7 @@
       <c r="C15" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="105" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="76" t="s">
@@ -26217,7 +26217,7 @@
       <c r="C16" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="105"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
@@ -26233,7 +26233,7 @@
       <c r="C17" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="101" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="57" t="s">
@@ -26251,7 +26251,7 @@
       <c r="C18" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="100"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="57" t="s">
         <v>22</v>
       </c>
@@ -26519,7 +26519,7 @@
       <c r="C19" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="107" t="s">
         <v>141</v>
       </c>
       <c r="E19" s="44" t="s">
@@ -26537,7 +26537,7 @@
       <c r="C20" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="107"/>
       <c r="E20" s="42" t="s">
         <v>143</v>
       </c>
@@ -26553,7 +26553,7 @@
       <c r="C21" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="106"/>
+      <c r="D21" s="108"/>
       <c r="E21" s="46" t="s">
         <v>6</v>
       </c>
